--- a/concepts/financial-flows/input.xlsx
+++ b/concepts/financial-flows/input.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="70">
   <si>
     <t>Pattern name (optional)</t>
   </si>
@@ -123,6 +123,9 @@
     <t>pay</t>
   </si>
   <si>
+    <t>repay</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
   </si>
   <si>
     <t>income</t>
+  </si>
+  <si>
+    <t>budget</t>
   </si>
   <si>
     <r>
@@ -1444,6 +1450,80 @@
       <c r="AI21" s="14"/>
       <c r="AJ21" s="14"/>
     </row>
+    <row r="22">
+      <c r="A22" s="15"/>
+      <c r="B22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="15"/>
+      <c r="B23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="Q1:T1"/>
@@ -1460,7 +1540,7 @@
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E21 G3:G21 I3:I21 K3:K21 M3:M21 O3:O21 Q3:Q21 S3:S21 U3:U21 W3:W21 Y3:Y21 AA3:AA21 AC3:AC21 AE3:AE21 AG3:AG21 AI3:AI21">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E23 G3:G23 I3:I23 K3:K23 M3:M23 O3:O23 Q3:Q23 S3:S23 U3:U23 W3:W23 Y3:Y23 AA3:AA23 AC3:AC23 AE3:AE23 AG3:AG23 AI3:AI23">
       <formula1>'Rule types'!$A$3:$A$100</formula1>
     </dataValidation>
   </dataValidations>
@@ -1480,122 +1560,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -1605,17 +1685,17 @@
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -1646,7 +1726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
